--- a/Cleaning_files/ProductCategory.xlsx
+++ b/Cleaning_files/ProductCategory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Sales Project\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Sales Project\Cleaning_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E57B646-DA78-47DD-AC9D-3FB41DDA7F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B0E4E1-C1DC-4BEF-87CA-C1624AEFFD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E8F0E28-43A5-4FB7-84AB-9A9C40ECFAE2}"/>
   </bookViews>
@@ -217,18 +217,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +546,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
